--- a/settings/data/Atk_Dependence.xlsx
+++ b/settings/data/Atk_Dependence.xlsx
@@ -29,18 +29,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>array_float</t>
+    <t>array</t>
   </si>
   <si>
     <t>属性依存ID</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">属性
 </t>
     </r>
@@ -80,6 +87,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">运算
 </t>
     </r>
@@ -121,6 +135,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">与基础值计算关系
 </t>
     </r>
@@ -158,7 +179,22 @@
     </r>
   </si>
   <si>
-    <t>"atkdep_mana_multiply"</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>calculation_parameter</t>
+  </si>
+  <si>
+    <t>relationship</t>
+  </si>
+  <si>
+    <t>atkdep_mana_multiply</t>
   </si>
   <si>
     <t>mana</t>
@@ -167,7 +203,7 @@
     <t>linear</t>
   </si>
   <si>
-    <t>[0.0025,0]</t>
+    <t>0.0025|0</t>
   </si>
   <si>
     <t>multiply</t>
@@ -814,9 +850,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -829,6 +868,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1141,71 +1183,88 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="29.8181818181818" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.4545454545455" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.6363636363636" style="3" customWidth="1"/>
-    <col min="4" max="4" width="27.0909090909091" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.7272727272727" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="29.8181818181818" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.4545454545455" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.6363636363636" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.0909090909091" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.7272727272727" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="112" spans="1:5">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="2" customFormat="1" ht="99" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:5">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="6" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
